--- a/data/4/20230615-a1r-nc-session4-g_transcript.xlsx
+++ b/data/4/20230615-a1r-nc-session4-g_transcript.xlsx
@@ -1,330 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:15/excel 06:15/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD89DD5D-19B8-9E45-8C8F-CA5BE88CC5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230615-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:04"</t>
-  </si>
-  <si>
-    <t>I am Peter from Wisconsin and I'm glad I don't have to listen to that again.</t>
-  </si>
-  <si>
-    <t>"2:14"</t>
-  </si>
-  <si>
-    <t>I'm Margaret from Michigan and I totally agree with you.</t>
-  </si>
-  <si>
-    <t>"2:19"</t>
-  </si>
-  <si>
-    <t>This is Jim from Buffalo.</t>
-  </si>
-  <si>
-    <t>"2:23"</t>
-  </si>
-  <si>
-    <t>This is Mark from Maine.</t>
-  </si>
-  <si>
-    <t>"2:28"</t>
-  </si>
-  <si>
-    <t>This is Mary from Mississippi. I here I am.</t>
-  </si>
-  <si>
-    <t>"2:37"</t>
-  </si>
-  <si>
-    <t>Aaron from Michigan.</t>
-  </si>
-  <si>
-    <t>"2:41"</t>
-  </si>
-  <si>
-    <t>Rich from Connecticut.</t>
-  </si>
-  <si>
-    <t>"2:46"</t>
-  </si>
-  <si>
-    <t>And Kerry from Maryland.</t>
-  </si>
-  <si>
-    <t>"13:24"</t>
-  </si>
-  <si>
-    <t>I guess I'll go. First, I have a problem. I have concerns about two of the items. One is both the foreign influence in elections, I think there are very real threat, but I don't. We've already got supposedly loopholes closed, and it seems like, there's always more opening up. So I don't know how we could go about closing more loopholes, I support the idea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> But I like to know how they would want to. The other concern I have is with a strong influence financially of packs the political action committees. I think that's more of a concern than may be individual contributors.</t>
-  </si>
-  <si>
-    <t>"14:09"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree especially about packs. I think that citizens united was a bad decision and I think I would like to see that overturn. So that money is not equated with speech because I think that's just a Grazie idea that allows corporations to give money and the Super PAC thing is connected to that and there's no accountability and they're not</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wired to identify themselves, which I think is is really bad for the election system.</t>
-  </si>
-  <si>
-    <t>"14:52"</t>
-  </si>
-  <si>
-    <t>Regardless of how things shake out. I think there has to be total transparency. Whether packs or anyone else is allowed to contribute. I think the focus definitely needs to be on transparency of all contributions.</t>
-  </si>
-  <si>
-    <t>"15:15"</t>
-  </si>
-  <si>
-    <t>So, as far as the limits on contributions, I don't know many people at all that are contributing three or five thousand dollars individually to election campaigns. So, raising those limits, I think is really only going to go for a really wealthy people and I don't want, I don't want candidates just skewing their agenda to attract wealthy people.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And same as now for National political parties, maybe you can make a case for that, but I don't think it makes sense for individuals.</t>
-  </si>
-  <si>
-    <t>"15:59"</t>
-  </si>
-  <si>
-    <t>I agree with Kerry even though you know the new 20 is 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I don't think they need any.</t>
-  </si>
-  <si>
-    <t>"16:18"</t>
-  </si>
-  <si>
-    <t>This isn't really part of this discussion, I don't know. I don't know if we're going to get to this at all but I think part of the problem with the campaign expenditures is that these elections just go on way way too long and I think that increases cost and you know this is a that's kind of a side issue but I think that's part of the problem.</t>
-  </si>
-  <si>
-    <t>"16:47"</t>
-  </si>
-  <si>
-    <t>I think your ear, right? I agree with it and I think the more money you know, is contributed to these campaigns always see our ads over and over and there, it seems like they're just throwing money at at a lot of these ways of getting voters and they're going so long then after a while, you just feel like I want to turn everything off. I don't want to listen to anything.</t>
-  </si>
-  <si>
-    <t>"17:21"</t>
-  </si>
-  <si>
-    <t>Yeah, if it was up to me just people and packs would be able to donate even less to candidates. I think it should just be, they should be the citizens that their candidates are pandering to not just a select few that can donate the most money.</t>
-  </si>
-  <si>
-    <t>"19:47"</t>
-  </si>
-  <si>
-    <t>I like the idea of the public.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> democracy vouchers that could be used because I think that gives the ability for a lot of people that might otherwise not be able to contribute to feel like they are contributing a bit that's just my</t>
-  </si>
-  <si>
-    <t>"20:06"</t>
-  </si>
-  <si>
-    <t>I agree some form of public financing which is like a mat some sort of a match between what the the person gives and then you know the public would funds would increase that. I think that's a good idea. Also, I agree with what Margaret said in the last round about disclosure. There's a lot of disclosure proposals in here and I think all of that is good, I think this needs to be</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Be much more transparent than it is right now.</t>
-  </si>
-  <si>
-    <t>"20:41"</t>
-  </si>
-  <si>
-    <t>I agree. I don't see why those big donations would need to be kept private. That should be public information.</t>
-  </si>
-  <si>
-    <t>"20:51"</t>
-  </si>
-  <si>
-    <t>And I don't think there should be a minimum amount set because who's going to determine that, and there might be a way or it might be a loophole for some of these contributors to get around by donating smaller amounts.</t>
-  </si>
-  <si>
-    <t>"22:34"</t>
-  </si>
-  <si>
-    <t>Okay, well, I'll start out since I spoke to this topic at length last week, didn't know that it was going to come up as a specific topic this time, but obviously, I'm all for it. Like I said in Michigan, you know, there was an obvious imbalance or Governor or Secretary of State. Our attorney general were from one party yet somehow the House and Senate in our state where from</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> different country party and it was basically because a districts were heavily gerrymandered to favor one party over another</t>
-  </si>
-  <si>
-    <t>"23:15"</t>
-  </si>
-  <si>
-    <t>Yeah, we still had that situation in Wisconsin that exact situation where the the state overall state.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You know, the governor and the state officials are all Democrats and the legislature is very heavily Republican and it's it is due to gerrymandering and I would like to see that addressed by having independent commissions and I'm glad to see that Michigan has done that.</t>
-  </si>
-  <si>
-    <t>"23:54"</t>
-  </si>
-  <si>
-    <t>Yeah, I was wondering how those commission's would be put together, I guess what, how do you control impartial commission panel?</t>
-  </si>
-  <si>
-    <t>"24:07"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree that it would be tough to get people that are really impartial because if they're willing enough to be on a panel like that, they're proud, they probably have some political leaning and it's tough to get around that. But at the same time, I think it's got to be better than than the way having. I mean, in Maryland, we're not quite the same as what first two guys were talking about because we have mostly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Democrats running everything and that basically they've gerrymandered everything to make it so that Republicans have no voice at all. Period even though we do control, I don't know, probably two-thirds of the counties.</t>
-  </si>
-  <si>
-    <t>"24:57"</t>
-  </si>
-  <si>
-    <t>Yeah, regardless of the party. I think that that's, that's not a good situation. And I think that, you know, I see the point about, you know, how you how you actually pick a commission and I think that, that is something definitely we worked on, but as Kerry said, I think any kind of independent commission is better than having the politicians, do that work themselves? I just think that's</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that's, that's not the way to go.</t>
-  </si>
-  <si>
-    <t>"26:26"</t>
-  </si>
-  <si>
-    <t>I definitely like the idea of a national holiday for voting. I think that knowledge has and recognizes the importance of the day. However I don't think that people should be paid to vote or penalize to vote. I think that's still a decision that they are free to make and also coming from</t>
-  </si>
-  <si>
-    <t>being involved in education and the board. I do not believe that 16 year, olds are old enough to vote for the school board. They're too easily influenced by parents and or something. They may not like that may not be valid.</t>
-  </si>
-  <si>
-    <t>"27:08"</t>
-  </si>
-  <si>
-    <t>I agree with Margaret. I think 16 year old is too young for them to vote, still not of legal age so the influence something that's, you know, school-related I think would would create problems.</t>
-  </si>
-  <si>
-    <t>"27:24"</t>
-  </si>
-  <si>
-    <t>I do like the idea of a national holiday for elections right now. I work for the state of Michigan and we are given that day off every two years to vote. And it is very nice to be able to go in during the day, when things aren't. So busy, then on the flip side, I when I work down in Miami, like I said, we did</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not have any special days off and even do an early voting, your get, you have to wait for hours in line and that's after working a full day. So definitely support the day off for</t>
-  </si>
-  <si>
-    <t>"28:13"</t>
-  </si>
-  <si>
-    <t>So I like the idea of a day off for averting. I'm they got to figure out. Somebody's got to figure out how to include all the people that don't usually get holidays off. Please Hospital workers most retail people stuff like that, but but aside from that I think it's a good idea. I don't like the idea of making it a civil Civic obligation because I think you already have too many people that don't know what the hell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Are talking about with when they vote and they just vote for. You know, whatever has the deer the are next to their name and they don't ever pay any attention to anything, and I think that would just encourage it even more.</t>
-  </si>
-  <si>
-    <t>"32:08"</t>
-  </si>
-  <si>
-    <t>I think we're both asking similar things, just wording it differently. So I think both questions are important</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -400,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -509,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1591,616 +1302,719 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"2:04"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>I am Peter from Wisconsin and I'm glad I don't have to listen to that again.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48614</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"2:14"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>I'm Margaret from Michigan and I totally agree with you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48651</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"2:19"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>This is Jim from Buffalo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48659</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"2:23"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>This is Mark from Maine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>9671</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"2:28"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>This is Mary from Mississippi. I here I am.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48621</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"2:37"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Aaron from Michigan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>48790</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"2:41"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Rich from Connecticut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>48673</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"2:46"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>And Kerry from Maryland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>48614</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"13:24"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>I guess I'll go. First, I have a problem. I have concerns about two of the items. One is both the foreign influence in elections, I think there are very real threat, but I don't. We've already got supposedly loopholes closed, and it seems like, there's always more opening up. So I don't know how we could go about closing more loopholes, I support the idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>48614</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"13:24"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> But I like to know how they would want to. The other concern I have is with a strong influence financially of packs the political action committees. I think that's more of a concern than may be individual contributors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"14:09"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"14:09"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree especially about packs. I think that citizens united was a bad decision and I think I would like to see that overturn. So that money is not equated with speech because I think that's just a Grazie idea that allows corporations to give money and the Super PAC thing is connected to that and there's no accountability and they're not</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"14:09"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> wired to identify themselves, which I think is is really bad for the election system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48614</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"14:52"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Regardless of how things shake out. I think there has to be total transparency. Whether packs or anyone else is allowed to contribute. I think the focus definitely needs to be on transparency of all contributions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>48673</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"15:15"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>So, as far as the limits on contributions, I don't know many people at all that are contributing three or five thousand dollars individually to election campaigns. So, raising those limits, I think is really only going to go for a really wealthy people and I don't want, I don't want candidates just skewing their agenda to attract wealthy people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48673</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"15:15"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And same as now for National political parties, maybe you can make a case for that, but I don't think it makes sense for individuals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>9671</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"15:59"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>I agree with Kerry even though you know the new 20 is 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>9671</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"15:59"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't think they need any.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"16:18"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>This isn't really part of this discussion, I don't know. I don't know if we're going to get to this at all but I think part of the problem with the campaign expenditures is that these elections just go on way way too long and I think that increases cost and you know this is a that's kind of a side issue but I think that's part of the problem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48614</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"16:47"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>I think your ear, right? I agree with it and I think the more money you know, is contributed to these campaigns always see our ads over and over and there, it seems like they're just throwing money at at a lot of these ways of getting voters and they're going so long then after a while, you just feel like I want to turn everything off. I don't want to listen to anything.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48621</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"17:21"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, if it was up to me just people and packs would be able to donate even less to candidates. I think it should just be, they should be the citizens that their candidates are pandering to not just a select few that can donate the most money.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48651</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"19:47"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>I like the idea of the public.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48651</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"19:47"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> democracy vouchers that could be used because I think that gives the ability for a lot of people that might otherwise not be able to contribute to feel like they are contributing a bit that's just my</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"20:06"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>I agree some form of public financing which is like a mat some sort of a match between what the the person gives and then you know the public would funds would increase that. I think that's a good idea. Also, I agree with what Margaret said in the last round about disclosure. There's a lot of disclosure proposals in here and I think all of that is good, I think this needs to be</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"20:06"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Be much more transparent than it is right now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48790</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"20:41"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I don't see why those big donations would need to be kept private. That should be public information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48614</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"20:51"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>And I don't think there should be a minimum amount set because who's going to determine that, and there might be a way or it might be a loophole for some of these contributors to get around by donating smaller amounts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>48621</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"22:34"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Okay, well, I'll start out since I spoke to this topic at length last week, didn't know that it was going to come up as a specific topic this time, but obviously, I'm all for it. Like I said in Michigan, you know, there was an obvious imbalance or Governor or Secretary of State. Our attorney general were from one party yet somehow the House and Senate in our state where from</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48621</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"22:34"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> different country party and it was basically because a districts were heavily gerrymandered to favor one party over another</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"23:15"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, we still had that situation in Wisconsin that exact situation where the the state overall state.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"23:15"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You know, the governor and the state officials are all Democrats and the legislature is very heavily Republican and it's it is due to gerrymandering and I would like to see that addressed by having independent commissions and I'm glad to see that Michigan has done that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48790</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"23:54"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I was wondering how those commission's would be put together, I guess what, how do you control impartial commission panel?</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48790</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"23:54"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48673</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"24:07"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree that it would be tough to get people that are really impartial because if they're willing enough to be on a panel like that, they're proud, they probably have some political leaning and it's tough to get around that. But at the same time, I think it's got to be better than than the way having. I mean, in Maryland, we're not quite the same as what first two guys were talking about because we have mostly</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48673</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"24:07"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Democrats running everything and that basically they've gerrymandered everything to make it so that Republicans have no voice at all. Period even though we do control, I don't know, probably two-thirds of the counties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"24:57"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, regardless of the party. I think that that's, that's not a good situation. And I think that, you know, I see the point about, you know, how you how you actually pick a commission and I think that, that is something definitely we worked on, but as Kerry said, I think any kind of independent commission is better than having the politicians, do that work themselves? I just think that's</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48674</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"24:57"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> that's, that's not the way to go.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48614</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"26:26"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>I definitely like the idea of a national holiday for voting. I think that knowledge has and recognizes the importance of the day. However I don't think that people should be paid to vote or penalize to vote. I think that's still a decision that they are free to make and also coming from</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48614</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"26:26"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>being involved in education and the board. I do not believe that 16 year, olds are old enough to vote for the school board. They're too easily influenced by parents and or something. They may not like that may not be valid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48790</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"27:08"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>I agree with Margaret. I think 16 year old is too young for them to vote, still not of legal age so the influence something that's, you know, school-related I think would would create problems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48621</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"27:24"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>I do like the idea of a national holiday for elections right now. I work for the state of Michigan and we are given that day off every two years to vote. And it is very nice to be able to go in during the day, when things aren't. So busy, then on the flip side, I when I work down in Miami, like I said, we did</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48621</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"27:24"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> not have any special days off and even do an early voting, your get, you have to wait for hours in line and that's after working a full day. So definitely support the day off for</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48673</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"28:13"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>So I like the idea of a day off for averting. I'm they got to figure out. Somebody's got to figure out how to include all the people that don't usually get holidays off. Please Hospital workers most retail people stuff like that, but but aside from that I think it's a good idea. I don't like the idea of making it a civil Civic obligation because I think you already have too many people that don't know what the hell.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48673</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"28:13"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Are talking about with when they vote and they just vote for. You know, whatever has the deer the are next to their name and they don't ever pay any attention to anything, and I think that would just encourage it even more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>48614</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>73</v>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"32:08"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>I think we're both asking similar things, just wording it differently. So I think both questions are important</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1E52C8-2F72-5947-BB27-D12E5C3A79F5}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>